--- a/CRWD.xlsx
+++ b/CRWD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8880A50-45CD-49BF-BE09-F973FD2F2DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9253D-4F52-41AC-AA9D-BAA19CB19B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ABD77CD8-545A-4B08-A8A4-6A2E50365B46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{ABD77CD8-545A-4B08-A8A4-6A2E50365B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +171,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -185,6 +183,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,19 +220,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,36 +571,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A71D78-D76C-4963-BA9D-DED33DC68467}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>421.65</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <f>233.85123+12.460182</f>
         <v>246.31141199999999</v>
       </c>
@@ -595,48 +609,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <f>+I2*I3</f>
         <v>103857.20686979999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>4260.3239999999996</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>743.61</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <f>+I4-I5+I6</f>
         <v>100340.4928698</v>
       </c>
@@ -650,26 +664,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6511F9-0431-476E-AF45-0B4764995DC0}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -695,401 +709,401 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>733.46299999999997</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>962.73500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>52.551000000000002</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>47.442999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f t="shared" ref="C5:H5" si="0">+C3+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>786.01400000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <f>+I3+I4</f>
         <v>1010.178</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <f t="shared" ref="J5" si="1">+J3+J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>159.83000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>216.30099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>35.173999999999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>38.786000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="2">+C5-SUM(C6:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <f t="shared" si="2"/>
         <v>591.01</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <f>+I5-SUM(I6:I7)</f>
         <v>755.09100000000001</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <f t="shared" ref="J8" si="3">+J5-SUM(J6:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>286.18599999999998</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>408.267</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>196.072</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>275.60199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>105.589</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>126.94499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:H12" si="4">+C8-SUM(C9:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <f t="shared" si="4"/>
         <v>3.1630000000000109</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <f>+I8-SUM(I9:I11)</f>
         <v>-55.722999999999843</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <f t="shared" ref="J12" si="5">+J8-SUM(J9:J11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>6.5030000000000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>6.5869999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>40.085999999999999</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>52.201000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>-0.47399999999999998</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>-0.42899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <f t="shared" ref="D16:H16" si="6">+D12-D13+D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <f t="shared" si="6"/>
         <v>36.272000000000013</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <f>+I12-I13+I14+I15</f>
         <v>-10.537999999999846</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <f t="shared" ref="J16" si="7">+J12-J13+J14+J15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>9.6029999999999998</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>6.2809999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <f t="shared" ref="C18:H18" si="8">+C16-C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <f t="shared" si="8"/>
         <v>26.669000000000011</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <f>+I16-I17</f>
         <v>-16.818999999999846</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="8">
         <f t="shared" ref="J18" si="9">+J16-J17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f t="shared" ref="C20:H20" si="10">+C18-C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <f t="shared" si="10"/>
         <v>26.673000000000012</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <f>+I18-I19</f>
         <v>-16.815999999999846</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8">
         <f t="shared" ref="J20" si="11">+J18-J19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="9" t="e">
+      <c r="C22" s="10" t="e">
         <f t="shared" ref="C22:H22" si="12">+C20/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="9" t="e">
+      <c r="D22" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <f t="shared" si="12"/>
         <v>0.11146399662344289</v>
       </c>
-      <c r="F22" s="9" t="e">
+      <c r="F22" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="9" t="e">
+      <c r="G22" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="9" t="e">
+      <c r="H22" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="10">
         <f>+I20/I23</f>
         <v>-6.848690212433145E-2</v>
       </c>
-      <c r="J22" s="9" t="e">
+      <c r="J22" s="10" t="e">
         <f t="shared" ref="J22" si="13">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>239.297</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>245.536</v>
       </c>
     </row>

--- a/CRWD.xlsx
+++ b/CRWD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9253D-4F52-41AC-AA9D-BAA19CB19B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C7C63D-DFED-4E37-935B-5657FB9EE452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{ABD77CD8-545A-4B08-A8A4-6A2E50365B46}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ABD77CD8-545A-4B08-A8A4-6A2E50365B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>CRWD</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>Other Income</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
   </si>
 </sst>
 </file>
@@ -162,13 +183,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -198,6 +225,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,28 +250,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A71D78-D76C-4963-BA9D-DED33DC68467}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -594,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="3">
-        <v>421.65</v>
+        <v>481.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -602,11 +643,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4">
-        <f>233.85123+12.460182</f>
-        <v>246.31141199999999</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
+        <v>250.95514</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -618,7 +658,7 @@
       </c>
       <c r="I4" s="6">
         <f>+I2*I3</f>
-        <v>103857.20686979999</v>
+        <v>120834.89990999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -629,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="6">
-        <v>4260.3239999999996</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>10</v>
+        <v>4972.4359999999997</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -640,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="6">
-        <v>743.61</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>10</v>
+        <v>744.72699999999998</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -652,7 +692,7 @@
       </c>
       <c r="I7" s="6">
         <f>+I4-I5+I6</f>
-        <v>100340.4928698</v>
+        <v>116607.19090999999</v>
       </c>
     </row>
   </sheetData>
@@ -662,13 +702,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6511F9-0431-476E-AF45-0B4764995DC0}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -678,12 +718,12 @@
     <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -708,30 +748,66 @@
       <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="8">
         <v>733.46299999999997</v>
       </c>
+      <c r="G3" s="8">
+        <v>872.17200000000003</v>
+      </c>
+      <c r="H3" s="8">
+        <v>918.25699999999995</v>
+      </c>
       <c r="I3" s="8">
         <v>962.73500000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="8">
+        <v>1050.768</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1102.9449999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="8">
         <v>52.551000000000002</v>
       </c>
+      <c r="G4" s="8">
+        <v>48.863999999999997</v>
+      </c>
+      <c r="H4" s="8">
+        <v>45.615000000000002</v>
+      </c>
       <c r="I4" s="8">
         <v>47.442999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="8">
+        <v>52.665999999999997</v>
+      </c>
+      <c r="L4" s="8">
+        <v>66.007000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -753,44 +829,84 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>921.03600000000006</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>963.87199999999996</v>
       </c>
       <c r="I5" s="9">
         <f>+I3+I4</f>
         <v>1010.178</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" ref="J5" si="1">+J3+J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J5:N5" si="1">+J3+J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="1"/>
+        <v>1103.434</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="1"/>
+        <v>1168.952</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="8">
         <v>159.83000000000001</v>
       </c>
+      <c r="G6" s="8">
+        <v>189.65700000000001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>199.91</v>
+      </c>
       <c r="I6" s="8">
         <v>216.30099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="8">
+        <v>242.374</v>
+      </c>
+      <c r="L6" s="8">
+        <v>253.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="8">
         <v>35.173999999999999</v>
       </c>
+      <c r="G7" s="8">
+        <v>35.345999999999997</v>
+      </c>
+      <c r="H7" s="8">
+        <v>37.491</v>
+      </c>
       <c r="I7" s="8">
         <v>38.786000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="8">
+        <v>46.768999999999998</v>
+      </c>
+      <c r="L7" s="8">
+        <v>56.643000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -812,55 +928,107 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>696.03300000000002</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>726.471</v>
       </c>
       <c r="I8" s="8">
         <f>+I5-SUM(I6:I7)</f>
         <v>755.09100000000001</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ref="J8" si="3">+J5-SUM(J6:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J8:N8" si="3">+J5-SUM(J6:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="3"/>
+        <v>814.29099999999994</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="3"/>
+        <v>858.66899999999998</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="8">
         <v>286.18599999999998</v>
       </c>
+      <c r="G9" s="8">
+        <v>350.11399999999998</v>
+      </c>
+      <c r="H9" s="8">
+        <v>355.471</v>
+      </c>
       <c r="I9" s="8">
         <v>408.267</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="8">
+        <v>439.61700000000002</v>
+      </c>
+      <c r="L9" s="8">
+        <v>447.024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="8">
         <v>196.072</v>
       </c>
+      <c r="G10" s="8">
+        <v>235.249</v>
+      </c>
+      <c r="H10" s="8">
+        <v>250.90799999999999</v>
+      </c>
       <c r="I10" s="8">
         <v>275.60199999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="8">
+        <v>334.12900000000002</v>
+      </c>
+      <c r="L10" s="8">
+        <v>346.66800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="8">
         <v>105.589</v>
       </c>
+      <c r="G11" s="8">
+        <v>103.735</v>
+      </c>
+      <c r="H11" s="8">
+        <v>106.434</v>
+      </c>
       <c r="I11" s="8">
         <v>126.94499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="8">
+        <v>165.20099999999999</v>
+      </c>
+      <c r="L11" s="8">
+        <v>177.95599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -882,55 +1050,107 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.9350000000000591</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.658000000000015</v>
       </c>
       <c r="I12" s="8">
         <f>+I8-SUM(I9:I11)</f>
         <v>-55.722999999999843</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ref="J12" si="5">+J8-SUM(J9:J11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J12:N12" si="5">+J8-SUM(J9:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="5"/>
+        <v>-124.65600000000018</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="5"/>
+        <v>-112.97900000000004</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="8">
         <v>6.5030000000000001</v>
       </c>
+      <c r="G13" s="8">
+        <v>6.5110000000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6.5490000000000004</v>
+      </c>
       <c r="I13" s="8">
         <v>6.5869999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="8">
+        <v>6.7149999999999999</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6.8230000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="8">
         <v>40.085999999999999</v>
       </c>
+      <c r="G14" s="8">
+        <v>45.85</v>
+      </c>
+      <c r="H14" s="8">
+        <v>51.526000000000003</v>
+      </c>
       <c r="I14" s="8">
         <v>52.201000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="8">
+        <v>45.38</v>
+      </c>
+      <c r="L14" s="8">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="8">
         <v>-0.47399999999999998</v>
       </c>
+      <c r="G15" s="8">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-1.0309999999999999</v>
+      </c>
       <c r="I15" s="8">
         <v>-0.42899999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="8">
+        <v>-3.8959999999999999</v>
+      </c>
+      <c r="L15" s="8">
+        <v>-2.722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -948,33 +1168,61 @@
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>53.930000000000057</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.604000000000021</v>
       </c>
       <c r="I16" s="8">
         <f>+I12-I13+I14+I15</f>
         <v>-10.537999999999846</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ref="J16" si="7">+J12-J13+J14+J15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J16:N16" si="7">+J12-J13+J14+J15</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="7"/>
+        <v>-89.887000000000185</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="7"/>
+        <v>-71.674000000000049</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="8">
         <v>9.6029999999999998</v>
       </c>
+      <c r="G17" s="8">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="H17" s="8">
+        <v>10.914</v>
+      </c>
       <c r="I17" s="8">
         <v>6.2809999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="8">
+        <v>21.106000000000002</v>
+      </c>
+      <c r="L17" s="8">
+        <v>5.9710000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -996,33 +1244,61 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>46.263000000000055</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>46.690000000000019</v>
       </c>
       <c r="I18" s="8">
         <f>+I16-I17</f>
         <v>-16.818999999999846</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18" si="9">+J16-J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J18:N18" si="9">+J16-J17</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="9"/>
+        <v>-110.99300000000019</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="9"/>
+        <v>-77.645000000000053</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
+      <c r="G19" s="8">
+        <v>3.444</v>
+      </c>
+      <c r="H19" s="8">
+        <v>-0.32300000000000001</v>
+      </c>
       <c r="I19" s="8">
         <v>-3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="8">
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1044,22 +1320,38 @@
       </c>
       <c r="G20" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42.819000000000052</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>47.013000000000019</v>
       </c>
       <c r="I20" s="8">
         <f>+I18-I19</f>
         <v>-16.815999999999846</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ref="J20" si="11">+J18-J19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J20:N20" si="11">+J18-J19</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="11"/>
+        <v>-110.20700000000019</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="11"/>
+        <v>-77.675000000000054</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1079,32 +1371,203 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="10" t="e">
+      <c r="G22" s="10">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="10" t="e">
+        <v>0.17665405608340334</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.19260439754026171</v>
       </c>
       <c r="I22" s="10">
         <f>+I20/I23</f>
         <v>-6.848690212433145E-2</v>
       </c>
       <c r="J22" s="10" t="e">
-        <f t="shared" ref="J22" si="13">+J20/J23</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J22:N22" si="13">+J20/J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="13"/>
+        <v>-0.44361032395182665</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="13"/>
+        <v>-0.31081313598149751</v>
+      </c>
+      <c r="M22" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="8">
         <v>239.297</v>
       </c>
+      <c r="G23" s="8">
+        <v>242.38900000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>244.09100000000001</v>
+      </c>
       <c r="I23" s="8">
         <v>245.536</v>
+      </c>
+      <c r="K23" s="8">
+        <v>248.43199999999999</v>
+      </c>
+      <c r="L23" s="8">
+        <v>249.90899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="13" t="e">
+        <f t="shared" ref="G25:K25" si="14">+G5/C5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="13" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="14"/>
+        <v>0.28519084901795644</v>
+      </c>
+      <c r="J25" s="13" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="14"/>
+        <v>0.19803569024446377</v>
+      </c>
+      <c r="L25" s="13">
+        <f>+L5/H5-1</f>
+        <v>0.2127668404103451</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" ref="M25:N25" si="15">+M5/I5-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N25" s="13" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13" t="e">
+        <f t="shared" ref="C26:L26" si="16">+C8/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.75190772683438212</v>
+      </c>
+      <c r="F26" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.7557066173309186</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.75370069884797986</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.74748311683683466</v>
+      </c>
+      <c r="J26" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.73796076611741157</v>
+      </c>
+      <c r="L26" s="13">
+        <f>+L8/L5</f>
+        <v>0.73456309583284851</v>
+      </c>
+      <c r="M26" s="13" t="e">
+        <f t="shared" ref="M26:N26" si="17">+M8/M5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="13" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="13" t="e">
+        <f t="shared" ref="C27:L27" si="18">+C12/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="18"/>
+        <v>4.0241013518843311E-3</v>
+      </c>
+      <c r="F27" s="13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="18"/>
+        <v>7.5295645338510752E-3</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="18"/>
+        <v>1.4169931277182048E-2</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="18"/>
+        <v>-5.5161565585470917E-2</v>
+      </c>
+      <c r="J27" s="13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="18"/>
+        <v>-0.11297096156181537</v>
+      </c>
+      <c r="L27" s="13">
+        <f>+L12/L5</f>
+        <v>-9.6649819667531292E-2</v>
+      </c>
+      <c r="M27" s="13" t="e">
+        <f t="shared" ref="M27:N27" si="19">+M12/M5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="13" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
